--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.2243578862117</v>
+        <v>144.843106</v>
       </c>
       <c r="H2">
-        <v>46.2243578862117</v>
+        <v>434.529318</v>
       </c>
       <c r="I2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.56243006111816</v>
+        <v>0.7483270000000001</v>
       </c>
       <c r="N2">
-        <v>2.56243006111816</v>
+        <v>2.244981</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2123245966460564</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2123245966460564</v>
       </c>
       <c r="Q2">
-        <v>118.4466842035131</v>
+        <v>108.390006983662</v>
       </c>
       <c r="R2">
-        <v>118.4466842035131</v>
+        <v>975.5100628529581</v>
       </c>
       <c r="S2">
-        <v>0.3825200913773227</v>
+        <v>0.1383762445009277</v>
       </c>
       <c r="T2">
-        <v>0.3825200913773227</v>
+        <v>0.1383762445009277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7697434139267</v>
+        <v>144.843106</v>
       </c>
       <c r="H3">
-        <v>33.7697434139267</v>
+        <v>434.529318</v>
       </c>
       <c r="I3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56243006111816</v>
+        <v>2.776121</v>
       </c>
       <c r="N3">
-        <v>2.56243006111816</v>
+        <v>8.328363</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7876754033539436</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7876754033539437</v>
       </c>
       <c r="Q3">
-        <v>86.53260568009276</v>
+        <v>402.101988271826</v>
       </c>
       <c r="R3">
-        <v>86.53260568009276</v>
+        <v>3618.917894446434</v>
       </c>
       <c r="S3">
-        <v>0.2794545111536786</v>
+        <v>0.5133440304307606</v>
       </c>
       <c r="T3">
-        <v>0.2794545111536786</v>
+        <v>0.5133440304307607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.9776585834394</v>
+        <v>33.793597</v>
       </c>
       <c r="H4">
-        <v>38.9776585834394</v>
+        <v>101.380791</v>
       </c>
       <c r="I4">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J4">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.56243006111816</v>
+        <v>0.7483270000000001</v>
       </c>
       <c r="N4">
-        <v>2.56243006111816</v>
+        <v>2.244981</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2123245966460564</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2123245966460564</v>
       </c>
       <c r="Q4">
-        <v>99.8775240662054</v>
+        <v>25.288661062219</v>
       </c>
       <c r="R4">
-        <v>99.8775240662054</v>
+        <v>227.597949559971</v>
       </c>
       <c r="S4">
-        <v>0.3225515335380951</v>
+        <v>0.03228480229523534</v>
       </c>
       <c r="T4">
-        <v>0.3225515335380951</v>
+        <v>0.03228480229523534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.86988720422291</v>
+        <v>33.793597</v>
       </c>
       <c r="H5">
-        <v>1.86988720422291</v>
+        <v>101.380791</v>
       </c>
       <c r="I5">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J5">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.56243006111816</v>
+        <v>2.776121</v>
       </c>
       <c r="N5">
-        <v>2.56243006111816</v>
+        <v>8.328363</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7876754033539436</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7876754033539437</v>
       </c>
       <c r="Q5">
-        <v>4.791455183000976</v>
+        <v>93.81511429723699</v>
       </c>
       <c r="R5">
-        <v>4.791455183000976</v>
+        <v>844.336028675133</v>
       </c>
       <c r="S5">
-        <v>0.01547386393090367</v>
+        <v>0.11976918864701</v>
       </c>
       <c r="T5">
-        <v>0.01547386393090367</v>
+        <v>0.11976918864701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H6">
+        <v>124.012802</v>
+      </c>
+      <c r="I6">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J6">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7483270000000001</v>
+      </c>
+      <c r="N6">
+        <v>2.244981</v>
+      </c>
+      <c r="O6">
+        <v>0.2123245966460564</v>
+      </c>
+      <c r="P6">
+        <v>0.2123245966460564</v>
+      </c>
+      <c r="Q6">
+        <v>30.93404269408467</v>
+      </c>
+      <c r="R6">
+        <v>278.406384246762</v>
+      </c>
+      <c r="S6">
+        <v>0.03949198615591949</v>
+      </c>
+      <c r="T6">
+        <v>0.03949198615591949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H7">
+        <v>124.012802</v>
+      </c>
+      <c r="I7">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J7">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.776121</v>
+      </c>
+      <c r="N7">
+        <v>8.328363</v>
+      </c>
+      <c r="O7">
+        <v>0.7876754033539436</v>
+      </c>
+      <c r="P7">
+        <v>0.7876754033539437</v>
+      </c>
+      <c r="Q7">
+        <v>114.7581813003473</v>
+      </c>
+      <c r="R7">
+        <v>1032.823631703126</v>
+      </c>
+      <c r="S7">
+        <v>0.1465061825901743</v>
+      </c>
+      <c r="T7">
+        <v>0.1465061825901743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.819148</v>
+      </c>
+      <c r="I8">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J8">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7483270000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.244981</v>
+      </c>
+      <c r="O8">
+        <v>0.2123245966460564</v>
+      </c>
+      <c r="P8">
+        <v>0.2123245966460564</v>
+      </c>
+      <c r="Q8">
+        <v>1.700984188465333</v>
+      </c>
+      <c r="R8">
+        <v>15.308857696188</v>
+      </c>
+      <c r="S8">
+        <v>0.002171563693973837</v>
+      </c>
+      <c r="T8">
+        <v>0.002171563693973837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.819148</v>
+      </c>
+      <c r="I9">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J9">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.776121</v>
+      </c>
+      <c r="N9">
+        <v>8.328363</v>
+      </c>
+      <c r="O9">
+        <v>0.7876754033539436</v>
+      </c>
+      <c r="P9">
+        <v>0.7876754033539437</v>
+      </c>
+      <c r="Q9">
+        <v>6.310259988302666</v>
+      </c>
+      <c r="R9">
+        <v>56.792339894724</v>
+      </c>
+      <c r="S9">
+        <v>0.008056001685998689</v>
+      </c>
+      <c r="T9">
+        <v>0.00805600168599869</v>
       </c>
     </row>
   </sheetData>
